--- a/Admin/Buyer/Manual testcases/View suppliers.xlsx
+++ b/Admin/Buyer/Manual testcases/View suppliers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Admin\Buyer\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572B9FB5-DE85-4B29-8A13-7D975E5D3432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26EDE34-9BEB-43E3-A83F-67B534E73A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
